--- a/Results/DecTree:RF/resultsRFparamtest.xlsx
+++ b/Results/DecTree:RF/resultsRFparamtest.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/Research_Evan/Raji_Summer2019_atom/Results/DecTree:RF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046C3E74-817A-D24C-89EE-20F2628BC934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D423366A-44C5-0C43-9999-EC5D4899C1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{3CA62DD4-98B4-8147-8E47-1BF5424F4183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$H$2:$H$5</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,10 +51,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,11 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,12 +688,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -703,17 +707,20 @@
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.77800000000000002</c:v>
+                  <c:v>0.86499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.86899999999999999</c:v>
@@ -726,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,20 +1152,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.8899999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
                   <c:v>3.7757494199999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="3">
                   <c:v>4.0090233199999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4" formatCode="0.00E+00">
                   <c:v>4.1514041499999999E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1163,20 +1176,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$5</c:f>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.87260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.87309999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.87319999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.873</c:v>
                 </c:pt>
               </c:numCache>
@@ -3187,16 +3203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>672041</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4235</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>724958</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3223,16 +3239,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>698501</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>184149</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>740835</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3557,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7E7DBD-814B-8944-9727-560C75CE3ABC}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H4:H5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3568,7 +3584,7 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3588,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3596,10 +3612,10 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0.77800000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -3607,8 +3623,15 @@
       <c r="H2" s="3">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4">
+        <f>AVERAGE(J2:J101)</f>
+        <v>39.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50</v>
       </c>
@@ -3621,14 +3644,21 @@
       <c r="E3">
         <v>0.86899999999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>3.7757494199999999E-5</v>
+      <c r="G3">
+        <v>1.8899999999999999E-5</v>
       </c>
       <c r="H3">
-        <v>0.87309999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="J3">
+        <v>39</v>
+      </c>
+      <c r="K3" s="4">
+        <f>STDEV(J2:J101)</f>
+        <v>3.0457123364434215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -3641,14 +3671,18 @@
       <c r="E4" s="2">
         <v>0.872</v>
       </c>
-      <c r="G4">
-        <v>4.0090233199999998E-5</v>
+      <c r="G4" s="1">
+        <v>3.7757494199999999E-5</v>
       </c>
       <c r="H4">
-        <v>0.87319999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="J4">
+        <v>37</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>200</v>
       </c>
@@ -3661,14 +3695,18 @@
       <c r="E5">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G5" s="1">
-        <v>4.1514041499999999E-5</v>
+      <c r="G5">
+        <v>4.0090233199999998E-5</v>
       </c>
       <c r="H5">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="J5">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -3680,6 +3718,501 @@
       </c>
       <c r="E6">
         <v>0.82</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.1514041499999999E-5</v>
+      </c>
+      <c r="H6">
+        <v>0.873</v>
+      </c>
+      <c r="J6">
+        <v>37</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J7">
+        <v>46</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>37</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Results/DecTree:RF/resultsRFparamtest.xlsx
+++ b/Results/DecTree:RF/resultsRFparamtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/Research_Evan/Raji_Summer2019_atom/Results/DecTree:RF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D423366A-44C5-0C43-9999-EC5D4899C1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E9E0B-6B18-2A4E-BB28-6D8EB4F72B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{3CA62DD4-98B4-8147-8E47-1BF5424F4183}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{3CA62DD4-98B4-8147-8E47-1BF5424F4183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">depth </t>
   </si>
   <si>
-    <t xml:space="preserve">tuning(ccp_alpha) </t>
+    <t xml:space="preserve">pruning (ccp_alpha) </t>
   </si>
 </sst>
 </file>
@@ -3576,7 +3576,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3695,10 +3695,10 @@
       <c r="E5">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>4.0090233199999998E-5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.87319999999999998</v>
       </c>
       <c r="J5">
